--- a/Lab 5 Data.xlsx
+++ b/Lab 5 Data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcmehrtens/Documents/Aerospace Undergrad/07 - Spring 2023/AER E 322/AER-E-322-lab-05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A60A84D-0812-9645-B86D-30DFF791961E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E739650C-FA20-C14C-B74D-D72838B30356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{1343EF8D-0295-254E-940E-A1ABE3789F38}"/>
+    <workbookView xWindow="15100" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{1343EF8D-0295-254E-940E-A1ABE3789F38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Configuration</t>
   </si>
@@ -84,13 +84,23 @@
   </si>
   <si>
     <t>Notes (b mm x h mm)</t>
+  </si>
+  <si>
+    <t>Theoretical [mm]</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +110,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,10 +141,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -139,10 +157,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A64C8-C9F9-9440-8D22-8C826204FA52}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,10 +493,12 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -484,11 +514,17 @@
       <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -505,11 +541,18 @@
         <f>AVERAGE(B2:D2)</f>
         <v>-4.6033333333333335</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6">
+        <v>-6.4160000000000004</v>
+      </c>
+      <c r="G2" s="5">
+        <f>ABS((F2-E2)/F2)</f>
+        <v>0.28252285951787198</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -526,11 +569,18 @@
         <f t="shared" ref="E3:E6" si="0">AVERAGE(B3:D3)</f>
         <v>-3.57</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6">
+        <v>-3.2080000000000002</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G6" si="1">ABS((F3-E3)/F3)</f>
+        <v>0.11284289276807968</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -547,11 +597,18 @@
         <f t="shared" si="0"/>
         <v>-5.0366666666666662</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6">
+        <v>-4.01</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.25602660016625101</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -568,11 +625,18 @@
         <f t="shared" si="0"/>
         <v>-2.12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6">
+        <v>-1.952</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>8.6065573770491885E-2</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -589,8 +653,21 @@
         <f t="shared" si="0"/>
         <v>2.3200000000000003</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15710723192019971</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="8">
+        <f>AVERAGE(G2:G6)</f>
+        <v>0.17891303162857886</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 5 Data.xlsx
+++ b/Lab 5 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcmehrtens/Documents/Aerospace Undergrad/07 - Spring 2023/AER E 322/AER-E-322-lab-05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E739650C-FA20-C14C-B74D-D72838B30356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC625FF-AD26-FF43-BA33-2CF9DD9A3965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15100" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{1343EF8D-0295-254E-940E-A1ABE3789F38}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,11 +654,11 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="F6" s="6">
-        <v>2.0049999999999999</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>0.15710723192019971</v>
+        <v>6.2626262626262544E-2</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -667,7 +667,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G7" s="8">
         <f>AVERAGE(G2:G6)</f>
-        <v>0.17891303162857886</v>
+        <v>0.16001683776979142</v>
       </c>
     </row>
   </sheetData>
